--- a/5-2025.xlsx
+++ b/5-2025.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samasoft\Nazafati\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6C5F55-9BDB-40F6-8015-E3D66EE3552A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
   <sheets>
-    <sheet name="كشف_تأييد_دوام_العمال" sheetId="1" r:id="rId1"/>
+    <sheet name="5-2025" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="112">
   <si>
     <t>الرقم</t>
   </si>
@@ -65,45 +59,18 @@
     <t>مجموع_الراتب</t>
   </si>
   <si>
-    <t>المخيم - حمزة الكراملة</t>
-  </si>
-  <si>
-    <t>وسط المدينة - عثمان الرفاعي</t>
-  </si>
-  <si>
-    <t>مراسل - البلدية - الادارة</t>
-  </si>
-  <si>
-    <t>مراسل - محكمة البلدية</t>
-  </si>
-  <si>
     <t>خالد محمد علي العطيفي</t>
   </si>
   <si>
-    <t>مراسل - مسجد الحسين بن طلال</t>
-  </si>
-  <si>
-    <t>مراسل - خطاط</t>
-  </si>
-  <si>
-    <t>مراسل - محطة المعرفة</t>
-  </si>
-  <si>
     <t>خالد جمال فتحي محمد</t>
   </si>
   <si>
     <t>محمد إبراهيم محمد إسماعيل</t>
   </si>
   <si>
-    <t>ليلي - مالك العبابسة</t>
-  </si>
-  <si>
     <t>خالد رمضان محمد ابراهيم</t>
   </si>
   <si>
-    <t>حنينا  - أحمد سعيد الرواجيح</t>
-  </si>
-  <si>
     <t>عمرو محمد شحاته محمد</t>
   </si>
   <si>
@@ -113,21 +80,12 @@
     <t>إبراهيم عبدالمحسن امين عثمان</t>
   </si>
   <si>
-    <t>حي الزراعة - احمد سعيد</t>
-  </si>
-  <si>
     <t>نادي سرحان عبداللطيف إبراهيم</t>
   </si>
   <si>
-    <t>حي الازايدة - احمد القطيش</t>
-  </si>
-  <si>
     <t>محمد حسن محمد احمد</t>
   </si>
   <si>
-    <t>جلال ابوعيسى - الحي الشرقي</t>
-  </si>
-  <si>
     <t>إيهاب محمد ابوزيد محمد</t>
   </si>
   <si>
@@ -146,9 +104,6 @@
     <t>اشرف محمود إبراهيم محمد</t>
   </si>
   <si>
-    <t>النطافة -احمد القطيش</t>
-  </si>
-  <si>
     <t>اضافي 8 ايام من شهر نيسان</t>
   </si>
   <si>
@@ -170,9 +125,6 @@
     <t>اشرف عشري محمد مهني</t>
   </si>
   <si>
-    <t>مسائي - مالك العبابسة</t>
-  </si>
-  <si>
     <t>خالد فالح نجيب محمد</t>
   </si>
   <si>
@@ -200,9 +152,6 @@
     <t>عبدالرحمن عبدالحليم عبدالرحمن حسن</t>
   </si>
   <si>
-    <t>المؤمونيات - احمد سعيد</t>
-  </si>
-  <si>
     <t>اسماعيل حسن محود اسماعيل</t>
   </si>
   <si>
@@ -218,9 +167,6 @@
     <t>وليد محمد حبشي سعد</t>
   </si>
   <si>
-    <t>الزراعة</t>
-  </si>
-  <si>
     <t>رمضان حسين محمد حسين</t>
   </si>
   <si>
@@ -248,9 +194,6 @@
     <t>احمد زكي احمد احمد</t>
   </si>
   <si>
-    <t>مراسل - المحافظة</t>
-  </si>
-  <si>
     <t>سامح محي امين احمد</t>
   </si>
   <si>
@@ -290,9 +233,6 @@
     <t>كامل احمد امين محمد</t>
   </si>
   <si>
-    <t xml:space="preserve">الاشغال </t>
-  </si>
-  <si>
     <t>محمد احمد محمد عبدالحليم</t>
   </si>
   <si>
@@ -305,9 +245,6 @@
     <t>محمد عيد وزير أحمد</t>
   </si>
   <si>
-    <t xml:space="preserve">الرش </t>
-  </si>
-  <si>
     <t>محروس بشرى مرزوق يوسف</t>
   </si>
   <si>
@@ -329,9 +266,6 @@
     <t>محمود رشيد محمود رشيد</t>
   </si>
   <si>
-    <t>الاشغال</t>
-  </si>
-  <si>
     <t>عاطف فانوس رزق بطرس</t>
   </si>
   <si>
@@ -371,9 +305,6 @@
     <t>محمود رضا السيد عبدالهادي</t>
   </si>
   <si>
-    <t>مراسل - ديوان المحاسية</t>
-  </si>
-  <si>
     <t>باشر بعد الاجازة : 22/5/2025</t>
   </si>
   <si>
@@ -393,13 +324,52 @@
   </si>
   <si>
     <t>لا يوجد تاييد دوام</t>
+  </si>
+  <si>
+    <t>region-default</t>
+  </si>
+  <si>
+    <t>region-1</t>
+  </si>
+  <si>
+    <t>region-2</t>
+  </si>
+  <si>
+    <t>region-3</t>
+  </si>
+  <si>
+    <t>region-4</t>
+  </si>
+  <si>
+    <t>region-5</t>
+  </si>
+  <si>
+    <t>region-6</t>
+  </si>
+  <si>
+    <t>region-7</t>
+  </si>
+  <si>
+    <t>region-8</t>
+  </si>
+  <si>
+    <t>region-9</t>
+  </si>
+  <si>
+    <t>region-10</t>
+  </si>
+  <si>
+    <t>region-11</t>
+  </si>
+  <si>
+    <t>region-12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -809,29 +779,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="J2" sqref="I2:J86"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -863,12 +832,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
         <v>820</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3">
         <v>31</v>
@@ -880,7 +849,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="G2" s="4">
         <v>8.25</v>
@@ -895,12 +864,12 @@
         <v>292.875</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="2">
         <v>832</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3">
         <v>31</v>
@@ -912,27 +881,27 @@
         <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="G3" s="4">
         <v>9</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="6">
-        <f t="shared" ref="I3:I23" si="0">(D3*G3*0.5)+(E3*G3)</f>
+        <f>(D3*G3*0.5)+(E3*G3)</f>
         <v>40.5</v>
       </c>
       <c r="J3" s="6">
-        <f t="shared" ref="J3:J23" si="1">(C3*G3)+I3</f>
+        <f>(C3*G3)+I3</f>
         <v>319.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="2">
         <v>833</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3">
         <v>31</v>
@@ -944,27 +913,27 @@
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="G4" s="4">
         <v>9</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="6">
-        <f t="shared" si="0"/>
+        <f>(D4*G4*0.5)+(E4*G4)</f>
         <v>40.5</v>
       </c>
       <c r="J4" s="6">
-        <f t="shared" si="1"/>
+        <f>(C4*G4)+I4</f>
         <v>319.5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>855</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3">
         <v>31</v>
@@ -976,27 +945,27 @@
         <v>2</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="G5" s="4">
         <v>8.25</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="6">
-        <f t="shared" si="0"/>
+        <f>(D5*G5*0.5)+(E5*G5)</f>
         <v>37.125</v>
       </c>
       <c r="J5" s="6">
-        <f t="shared" si="1"/>
+        <f>(C5*G5)+I5</f>
         <v>292.875</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>856</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3">
         <v>31</v>
@@ -1008,27 +977,27 @@
         <v>2</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="G6" s="4">
         <v>9</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="6">
-        <f t="shared" si="0"/>
+        <f>(D6*G6*0.5)+(E6*G6)</f>
         <v>40.5</v>
       </c>
       <c r="J6" s="6">
-        <f t="shared" si="1"/>
+        <f>(C6*G6)+I6</f>
         <v>319.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>861</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3">
         <v>31</v>
@@ -1040,27 +1009,27 @@
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="G7" s="4">
         <v>8.25</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="6">
-        <f t="shared" si="0"/>
+        <f>(D7*G7*0.5)+(E7*G7)</f>
         <v>37.125</v>
       </c>
       <c r="J7" s="6">
-        <f t="shared" si="1"/>
+        <f>(C7*G7)+I7</f>
         <v>292.875</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>910</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3">
         <v>31</v>
@@ -1072,27 +1041,27 @@
         <v>2</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="G8" s="4">
         <v>9</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="6">
-        <f t="shared" si="0"/>
+        <f>(D8*G8*0.5)+(E8*G8)</f>
         <v>40.5</v>
       </c>
       <c r="J8" s="6">
-        <f t="shared" si="1"/>
+        <f>(C8*G8)+I8</f>
         <v>319.5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>923</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3">
         <v>31</v>
@@ -1104,27 +1073,27 @@
         <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="G9" s="4">
         <v>9</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="6">
-        <f t="shared" si="0"/>
+        <f>(D9*G9*0.5)+(E9*G9)</f>
         <v>40.5</v>
       </c>
       <c r="J9" s="6">
-        <f t="shared" si="1"/>
+        <f>(C9*G9)+I9</f>
         <v>319.5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>999</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3">
         <v>31</v>
@@ -1134,27 +1103,27 @@
         <v>2</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="G10" s="4">
         <v>8.25</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="6">
-        <f t="shared" si="0"/>
+        <f>(D10*G10*0.5)+(E10*G10)</f>
         <v>16.5</v>
       </c>
       <c r="J10" s="6">
-        <f t="shared" si="1"/>
+        <f>(C10*G10)+I10</f>
         <v>272.25</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="2">
         <v>1023</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3">
         <v>31</v>
@@ -1166,27 +1135,27 @@
         <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="G11" s="4">
         <v>8.25</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="6">
-        <f t="shared" si="0"/>
+        <f>(D11*G11*0.5)+(E11*G11)</f>
         <v>37.125</v>
       </c>
       <c r="J11" s="6">
-        <f t="shared" si="1"/>
+        <f>(C11*G11)+I11</f>
         <v>292.875</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="2">
         <v>1045</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3">
         <v>31</v>
@@ -1198,27 +1167,27 @@
         <v>2</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="G12" s="4">
         <v>8.25</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="6">
-        <f t="shared" si="0"/>
+        <f>(D12*G12*0.5)+(E12*G12)</f>
         <v>37.125</v>
       </c>
       <c r="J12" s="6">
-        <f t="shared" si="1"/>
+        <f>(C12*G12)+I12</f>
         <v>292.875</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="2">
         <v>1050</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3">
         <v>20</v>
@@ -1230,27 +1199,27 @@
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="G13" s="4">
         <v>8.25</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="6">
-        <f t="shared" si="0"/>
+        <f>(D13*G13*0.5)+(E13*G13)</f>
         <v>20.625</v>
       </c>
       <c r="J13" s="6">
-        <f t="shared" si="1"/>
+        <f>(C13*G13)+I13</f>
         <v>185.625</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="2">
         <v>1068</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3">
         <v>31</v>
@@ -1262,29 +1231,29 @@
         <v>2</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="G14" s="4">
         <v>8.25</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I14" s="6">
-        <f t="shared" si="0"/>
+        <f>(D14*G14*0.5)+(E14*G14)</f>
         <v>37.125</v>
       </c>
       <c r="J14" s="6">
-        <f t="shared" si="1"/>
+        <f>(C14*G14)+I14</f>
         <v>292.875</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="2">
         <v>1298</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C15" s="3">
         <v>31</v>
@@ -1296,29 +1265,29 @@
         <v>2</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="G15" s="4">
         <v>8.25</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I15" s="6">
-        <f t="shared" si="0"/>
+        <f>(D15*G15*0.5)+(E15*G15)</f>
         <v>49.5</v>
       </c>
       <c r="J15" s="6">
-        <f t="shared" si="1"/>
+        <f>(C15*G15)+I15</f>
         <v>305.25</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" s="2">
         <v>1311</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C16" s="3">
         <v>31</v>
@@ -1330,27 +1299,27 @@
         <v>2</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="G16" s="4">
         <v>8.25</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="6">
-        <f t="shared" si="0"/>
+        <f>(D16*G16*0.5)+(E16*G16)</f>
         <v>37.125</v>
       </c>
       <c r="J16" s="6">
-        <f t="shared" si="1"/>
+        <f>(C16*G16)+I16</f>
         <v>292.875</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" s="2">
         <v>1357</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C17" s="3">
         <v>31</v>
@@ -1362,27 +1331,27 @@
         <v>2</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="G17" s="4">
         <v>9</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="6">
-        <f t="shared" si="0"/>
+        <f>(D17*G17*0.5)+(E17*G17)</f>
         <v>40.5</v>
       </c>
       <c r="J17" s="6">
-        <f t="shared" si="1"/>
+        <f>(C17*G17)+I17</f>
         <v>319.5</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" s="2">
         <v>1421</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C18" s="3">
         <v>31</v>
@@ -1394,27 +1363,27 @@
         <v>2</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="G18" s="4">
         <v>9</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="6">
-        <f t="shared" si="0"/>
+        <f>(D18*G18*0.5)+(E18*G18)</f>
         <v>40.5</v>
       </c>
       <c r="J18" s="6">
-        <f t="shared" si="1"/>
+        <f>(C18*G18)+I18</f>
         <v>319.5</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" s="2">
         <v>1440</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C19" s="3">
         <v>31</v>
@@ -1426,27 +1395,27 @@
         <v>2</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="G19" s="4">
         <v>8.25</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="6">
-        <f t="shared" si="0"/>
+        <f>(D19*G19*0.5)+(E19*G19)</f>
         <v>37.125</v>
       </c>
       <c r="J19" s="6">
-        <f t="shared" si="1"/>
+        <f>(C19*G19)+I19</f>
         <v>292.875</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" s="2">
         <v>3004</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3">
         <v>31</v>
@@ -1458,27 +1427,27 @@
         <v>2</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="G20" s="4">
         <v>8.25</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="6">
-        <f t="shared" si="0"/>
+        <f>(D20*G20*0.5)+(E20*G20)</f>
         <v>37.125</v>
       </c>
       <c r="J20" s="6">
-        <f t="shared" si="1"/>
+        <f>(C20*G20)+I20</f>
         <v>292.875</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" s="2">
         <v>3006</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C21" s="3">
         <v>31</v>
@@ -1490,27 +1459,27 @@
         <v>2</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="G21" s="4">
         <v>9</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="6">
-        <f t="shared" si="0"/>
+        <f>(D21*G21*0.5)+(E21*G21)</f>
         <v>40.5</v>
       </c>
       <c r="J21" s="6">
-        <f t="shared" si="1"/>
+        <f>(C21*G21)+I21</f>
         <v>319.5</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" s="2">
         <v>3009</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C22" s="3">
         <v>31</v>
@@ -1522,27 +1491,27 @@
         <v>2</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="G22" s="4">
         <v>9</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="6">
-        <f t="shared" si="0"/>
+        <f>(D22*G22*0.5)+(E22*G22)</f>
         <v>40.5</v>
       </c>
       <c r="J22" s="6">
-        <f t="shared" si="1"/>
+        <f>(C22*G22)+I22</f>
         <v>319.5</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" s="2">
         <v>3011</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C23" s="3">
         <v>31</v>
@@ -1554,27 +1523,27 @@
         <v>2</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="G23" s="4">
         <v>8.25</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="6">
-        <f t="shared" si="0"/>
+        <f>(D23*G23*0.5)+(E23*G23)</f>
         <v>37.125</v>
       </c>
       <c r="J23" s="6">
-        <f t="shared" si="1"/>
+        <f>(C23*G23)+I23</f>
         <v>292.875</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" s="2">
         <v>3017</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C24" s="3">
         <v>31</v>
@@ -1586,27 +1555,27 @@
         <v>2</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="G24" s="4">
         <v>8.25</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="6">
-        <f t="shared" ref="I24:I86" si="2">(D24*G24*0.5)+(E24*G24)</f>
+        <f>(D24*G24*0.5)+(E24*G24)</f>
         <v>37.125</v>
       </c>
       <c r="J24" s="6">
-        <f t="shared" ref="J24:J86" si="3">(C24*G24)+I24</f>
+        <f>(C24*G24)+I24</f>
         <v>292.875</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" s="2">
         <v>3018</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C25" s="3">
         <v>31</v>
@@ -1618,27 +1587,27 @@
         <v>2</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="G25" s="4">
         <v>9</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="6">
-        <f t="shared" si="2"/>
+        <f>(D25*G25*0.5)+(E25*G25)</f>
         <v>40.5</v>
       </c>
       <c r="J25" s="6">
-        <f t="shared" si="3"/>
+        <f>(C25*G25)+I25</f>
         <v>319.5</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26" s="2">
         <v>3019</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C26" s="3">
         <v>31</v>
@@ -1650,27 +1619,27 @@
         <v>2</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="G26" s="4">
         <v>9</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="6">
-        <f t="shared" si="2"/>
+        <f>(D26*G26*0.5)+(E26*G26)</f>
         <v>40.5</v>
       </c>
       <c r="J26" s="6">
-        <f t="shared" si="3"/>
+        <f>(C26*G26)+I26</f>
         <v>319.5</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" s="2">
         <v>3022</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C27" s="3">
         <v>31</v>
@@ -1682,27 +1651,27 @@
         <v>2</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="G27" s="4">
         <v>8.25</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="6">
-        <f t="shared" si="2"/>
+        <f>(D27*G27*0.5)+(E27*G27)</f>
         <v>37.125</v>
       </c>
       <c r="J27" s="6">
-        <f t="shared" si="3"/>
+        <f>(C27*G27)+I27</f>
         <v>292.875</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28" s="2">
         <v>3026</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C28" s="3">
         <v>31</v>
@@ -1714,27 +1683,27 @@
         <v>2</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="G28" s="4">
         <v>9</v>
       </c>
       <c r="H28" s="5"/>
       <c r="I28" s="6">
-        <f t="shared" si="2"/>
+        <f>(D28*G28*0.5)+(E28*G28)</f>
         <v>40.5</v>
       </c>
       <c r="J28" s="6">
-        <f t="shared" si="3"/>
+        <f>(C28*G28)+I28</f>
         <v>319.5</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29" s="2">
         <v>3039</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C29" s="3">
         <v>5</v>
@@ -1746,27 +1715,27 @@
         <v>1</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="G29" s="4">
         <v>8.25</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="6">
-        <f t="shared" si="2"/>
+        <f>(D29*G29*0.5)+(E29*G29)</f>
         <v>12.375</v>
       </c>
       <c r="J29" s="6">
-        <f t="shared" si="3"/>
+        <f>(C29*G29)+I29</f>
         <v>53.625</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30" s="2">
         <v>3042</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C30" s="3">
         <v>31</v>
@@ -1778,27 +1747,27 @@
         <v>2</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="G30" s="4">
         <v>8.25</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="6">
-        <f t="shared" si="2"/>
+        <f>(D30*G30*0.5)+(E30*G30)</f>
         <v>37.125</v>
       </c>
       <c r="J30" s="6">
-        <f t="shared" si="3"/>
+        <f>(C30*G30)+I30</f>
         <v>292.875</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="A31" s="2">
         <v>3048</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C31" s="3">
         <v>31</v>
@@ -1810,27 +1779,27 @@
         <v>2</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="G31" s="4">
         <v>9</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="6">
-        <f t="shared" si="2"/>
+        <f>(D31*G31*0.5)+(E31*G31)</f>
         <v>40.5</v>
       </c>
       <c r="J31" s="6">
-        <f t="shared" si="3"/>
+        <f>(C31*G31)+I31</f>
         <v>319.5</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="A32" s="2">
         <v>3049</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C32" s="3">
         <v>31</v>
@@ -1842,27 +1811,27 @@
         <v>2</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="G32" s="4">
         <v>9</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="6">
-        <f t="shared" si="2"/>
+        <f>(D32*G32*0.5)+(E32*G32)</f>
         <v>40.5</v>
       </c>
       <c r="J32" s="6">
-        <f t="shared" si="3"/>
+        <f>(C32*G32)+I32</f>
         <v>319.5</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33" s="2">
         <v>3052</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C33" s="3">
         <v>31</v>
@@ -1872,27 +1841,27 @@
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="2" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="G33" s="4">
         <v>8.25</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="6">
-        <f t="shared" si="2"/>
+        <f>(D33*G33*0.5)+(E33*G33)</f>
         <v>16.5</v>
       </c>
       <c r="J33" s="6">
-        <f t="shared" si="3"/>
+        <f>(C33*G33)+I33</f>
         <v>272.25</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34" s="2">
         <v>3055</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C34" s="3">
         <v>31</v>
@@ -1904,27 +1873,27 @@
         <v>2</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="G34" s="4">
         <v>9</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="6">
-        <f t="shared" si="2"/>
+        <f>(D34*G34*0.5)+(E34*G34)</f>
         <v>40.5</v>
       </c>
       <c r="J34" s="6">
-        <f t="shared" si="3"/>
+        <f>(C34*G34)+I34</f>
         <v>319.5</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35" s="2">
         <v>3057</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C35" s="3">
         <v>31</v>
@@ -1936,27 +1905,27 @@
         <v>2</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="G35" s="4">
         <v>9</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="6">
-        <f t="shared" si="2"/>
+        <f>(D35*G35*0.5)+(E35*G35)</f>
         <v>40.5</v>
       </c>
       <c r="J35" s="6">
-        <f t="shared" si="3"/>
+        <f>(C35*G35)+I35</f>
         <v>319.5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36" s="2">
         <v>3059</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C36" s="3">
         <v>31</v>
@@ -1968,27 +1937,27 @@
         <v>2</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="G36" s="4">
         <v>8.25</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="6">
-        <f t="shared" si="2"/>
+        <f>(D36*G36*0.5)+(E36*G36)</f>
         <v>37.125</v>
       </c>
       <c r="J36" s="6">
-        <f t="shared" si="3"/>
+        <f>(C36*G36)+I36</f>
         <v>292.875</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" s="2">
         <v>3060</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C37" s="3">
         <v>31</v>
@@ -2000,27 +1969,27 @@
         <v>2</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="G37" s="4">
         <v>9</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="6">
-        <f t="shared" si="2"/>
+        <f>(D37*G37*0.5)+(E37*G37)</f>
         <v>40.5</v>
       </c>
       <c r="J37" s="6">
-        <f t="shared" si="3"/>
+        <f>(C37*G37)+I37</f>
         <v>319.5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38" s="2">
         <v>3066</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C38" s="3">
         <v>31</v>
@@ -2032,27 +2001,27 @@
         <v>2</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="G38" s="4">
         <v>8.25</v>
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="6">
-        <f t="shared" si="2"/>
+        <f>(D38*G38*0.5)+(E38*G38)</f>
         <v>37.125</v>
       </c>
       <c r="J38" s="6">
-        <f t="shared" si="3"/>
+        <f>(C38*G38)+I38</f>
         <v>292.875</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="A39" s="2">
         <v>3073</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C39" s="3">
         <v>31</v>
@@ -2064,27 +2033,27 @@
         <v>2</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="G39" s="4">
         <v>8.25</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="6">
-        <f t="shared" si="2"/>
+        <f>(D39*G39*0.5)+(E39*G39)</f>
         <v>37.125</v>
       </c>
       <c r="J39" s="6">
-        <f t="shared" si="3"/>
+        <f>(C39*G39)+I39</f>
         <v>292.875</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="A40" s="2">
         <v>3080</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C40" s="3">
         <v>31</v>
@@ -2096,27 +2065,27 @@
         <v>2</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="G40" s="4">
         <v>9</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="6">
-        <f t="shared" si="2"/>
+        <f>(D40*G40*0.5)+(E40*G40)</f>
         <v>40.5</v>
       </c>
       <c r="J40" s="6">
-        <f t="shared" si="3"/>
+        <f>(C40*G40)+I40</f>
         <v>319.5</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10">
       <c r="A41" s="2">
         <v>3082</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C41" s="3">
         <v>31</v>
@@ -2126,27 +2095,27 @@
         <v>2</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="G41" s="4">
         <v>9</v>
       </c>
       <c r="H41" s="5"/>
       <c r="I41" s="6">
-        <f t="shared" si="2"/>
+        <f>(D41*G41*0.5)+(E41*G41)</f>
         <v>18</v>
       </c>
       <c r="J41" s="6">
-        <f t="shared" si="3"/>
+        <f>(C41*G41)+I41</f>
         <v>297</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10">
       <c r="A42" s="2">
         <v>3083</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C42" s="3">
         <v>31</v>
@@ -2156,27 +2125,27 @@
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="2" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="G42" s="4">
         <v>9</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="6">
-        <f t="shared" si="2"/>
+        <f>(D42*G42*0.5)+(E42*G42)</f>
         <v>18</v>
       </c>
       <c r="J42" s="6">
-        <f t="shared" si="3"/>
+        <f>(C42*G42)+I42</f>
         <v>297</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="A43" s="2">
         <v>3085</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C43" s="3">
         <v>31</v>
@@ -2188,27 +2157,27 @@
         <v>2</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="G43" s="4">
         <v>8.25</v>
       </c>
       <c r="H43" s="5"/>
       <c r="I43" s="6">
-        <f t="shared" si="2"/>
+        <f>(D43*G43*0.5)+(E43*G43)</f>
         <v>37.125</v>
       </c>
       <c r="J43" s="6">
-        <f t="shared" si="3"/>
+        <f>(C43*G43)+I43</f>
         <v>292.875</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10">
       <c r="A44" s="2">
         <v>3089</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C44" s="3">
         <v>31</v>
@@ -2220,27 +2189,27 @@
         <v>2</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="G44" s="4">
         <v>8.25</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="6">
-        <f t="shared" si="2"/>
+        <f>(D44*G44*0.5)+(E44*G44)</f>
         <v>37.125</v>
       </c>
       <c r="J44" s="6">
-        <f t="shared" si="3"/>
+        <f>(C44*G44)+I44</f>
         <v>292.875</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10">
       <c r="A45" s="2">
         <v>4004</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C45" s="3">
         <v>31</v>
@@ -2252,27 +2221,27 @@
         <v>2</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="G45" s="4">
         <v>9</v>
       </c>
       <c r="H45" s="5"/>
       <c r="I45" s="6">
-        <f t="shared" si="2"/>
+        <f>(D45*G45*0.5)+(E45*G45)</f>
         <v>40.5</v>
       </c>
       <c r="J45" s="6">
-        <f t="shared" si="3"/>
+        <f>(C45*G45)+I45</f>
         <v>319.5</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10">
       <c r="A46" s="2">
         <v>4006</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C46" s="3">
         <v>31</v>
@@ -2284,27 +2253,27 @@
         <v>2</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="G46" s="4">
         <v>9</v>
       </c>
       <c r="H46" s="5"/>
       <c r="I46" s="6">
-        <f t="shared" si="2"/>
+        <f>(D46*G46*0.5)+(E46*G46)</f>
         <v>40.5</v>
       </c>
       <c r="J46" s="6">
-        <f t="shared" si="3"/>
+        <f>(C46*G46)+I46</f>
         <v>319.5</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10">
       <c r="A47" s="2">
         <v>4009</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C47" s="3">
         <v>31</v>
@@ -2312,27 +2281,27 @@
       <c r="D47" s="3"/>
       <c r="E47" s="6"/>
       <c r="F47" s="2" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="G47" s="4">
         <v>9</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="6">
-        <f t="shared" si="2"/>
+        <f>(D47*G47*0.5)+(E47*G47)</f>
         <v>0</v>
       </c>
       <c r="J47" s="6">
-        <f t="shared" si="3"/>
+        <f>(C47*G47)+I47</f>
         <v>279</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10">
       <c r="A48" s="2">
         <v>4012</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C48" s="3">
         <v>31</v>
@@ -2340,27 +2309,27 @@
       <c r="D48" s="3"/>
       <c r="E48" s="6"/>
       <c r="F48" s="2" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="G48" s="4">
         <v>8.25</v>
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="6">
-        <f t="shared" si="2"/>
+        <f>(D48*G48*0.5)+(E48*G48)</f>
         <v>0</v>
       </c>
       <c r="J48" s="6">
-        <f t="shared" si="3"/>
+        <f>(C48*G48)+I48</f>
         <v>255.75</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10">
       <c r="A49" s="2">
         <v>4013</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C49" s="3">
         <v>31</v>
@@ -2370,27 +2339,27 @@
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="2" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="G49" s="4">
         <v>9</v>
       </c>
       <c r="H49" s="5"/>
       <c r="I49" s="6">
-        <f t="shared" si="2"/>
+        <f>(D49*G49*0.5)+(E49*G49)</f>
         <v>18</v>
       </c>
       <c r="J49" s="6">
-        <f t="shared" si="3"/>
+        <f>(C49*G49)+I49</f>
         <v>297</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10">
       <c r="A50" s="2">
         <v>4015</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3">
@@ -2398,27 +2367,27 @@
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="2" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="G50" s="4">
         <v>9</v>
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="6">
-        <f t="shared" si="2"/>
+        <f>(D50*G50*0.5)+(E50*G50)</f>
         <v>18</v>
       </c>
       <c r="J50" s="6">
-        <f t="shared" si="3"/>
+        <f>(C50*G50)+I50</f>
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10">
       <c r="A51" s="2">
         <v>4017</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C51" s="3">
         <v>31</v>
@@ -2428,27 +2397,27 @@
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="2" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="G51" s="4">
         <v>9</v>
       </c>
       <c r="H51" s="5"/>
       <c r="I51" s="6">
-        <f t="shared" si="2"/>
+        <f>(D51*G51*0.5)+(E51*G51)</f>
         <v>18</v>
       </c>
       <c r="J51" s="6">
-        <f t="shared" si="3"/>
+        <f>(C51*G51)+I51</f>
         <v>297</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10">
       <c r="A52" s="2">
         <v>4025</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="C52" s="3">
         <v>31</v>
@@ -2460,27 +2429,27 @@
         <v>2</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="G52" s="4">
         <v>9</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="6">
-        <f t="shared" si="2"/>
+        <f>(D52*G52*0.5)+(E52*G52)</f>
         <v>40.5</v>
       </c>
       <c r="J52" s="6">
-        <f t="shared" si="3"/>
+        <f>(C52*G52)+I52</f>
         <v>319.5</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10">
       <c r="A53" s="2">
         <v>4026</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C53" s="3">
         <v>31</v>
@@ -2488,27 +2457,27 @@
       <c r="D53" s="3"/>
       <c r="E53" s="6"/>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="G53" s="4">
         <v>8.25</v>
       </c>
       <c r="H53" s="5"/>
       <c r="I53" s="6">
-        <f t="shared" si="2"/>
+        <f>(D53*G53*0.5)+(E53*G53)</f>
         <v>0</v>
       </c>
       <c r="J53" s="6">
-        <f t="shared" si="3"/>
+        <f>(C53*G53)+I53</f>
         <v>255.75</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10">
       <c r="A54" s="2">
         <v>4033</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="C54" s="3">
         <v>31</v>
@@ -2520,27 +2489,27 @@
         <v>2</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="G54" s="4">
         <v>9</v>
       </c>
       <c r="H54" s="5"/>
       <c r="I54" s="6">
-        <f t="shared" si="2"/>
+        <f>(D54*G54*0.5)+(E54*G54)</f>
         <v>40.5</v>
       </c>
       <c r="J54" s="6">
-        <f t="shared" si="3"/>
+        <f>(C54*G54)+I54</f>
         <v>319.5</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10">
       <c r="A55" s="2">
         <v>4036</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="C55" s="3">
         <v>31</v>
@@ -2552,27 +2521,27 @@
         <v>2</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="G55" s="4">
         <v>9</v>
       </c>
       <c r="H55" s="5"/>
       <c r="I55" s="6">
-        <f t="shared" si="2"/>
+        <f>(D55*G55*0.5)+(E55*G55)</f>
         <v>40.5</v>
       </c>
       <c r="J55" s="6">
-        <f t="shared" si="3"/>
+        <f>(C55*G55)+I55</f>
         <v>319.5</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10">
       <c r="A56" s="2">
         <v>4038</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C56" s="3">
         <v>24</v>
@@ -2582,27 +2551,27 @@
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="G56" s="4">
         <v>9</v>
       </c>
       <c r="H56" s="5"/>
       <c r="I56" s="6">
-        <f t="shared" si="2"/>
+        <f>(D56*G56*0.5)+(E56*G56)</f>
         <v>13.5</v>
       </c>
       <c r="J56" s="6">
-        <f t="shared" si="3"/>
+        <f>(C56*G56)+I56</f>
         <v>229.5</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10">
       <c r="A57" s="2">
         <v>4077</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C57" s="3">
         <v>31</v>
@@ -2614,27 +2583,27 @@
         <v>2</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="G57" s="4">
         <v>8.25</v>
       </c>
       <c r="H57" s="5"/>
       <c r="I57" s="6">
-        <f t="shared" si="2"/>
+        <f>(D57*G57*0.5)+(E57*G57)</f>
         <v>37.125</v>
       </c>
       <c r="J57" s="6">
-        <f t="shared" si="3"/>
+        <f>(C57*G57)+I57</f>
         <v>292.875</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10">
       <c r="A58" s="2">
         <v>4078</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C58" s="3">
         <v>31</v>
@@ -2646,27 +2615,27 @@
         <v>2</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="G58" s="4">
         <v>9</v>
       </c>
       <c r="H58" s="5"/>
       <c r="I58" s="6">
-        <f t="shared" si="2"/>
+        <f>(D58*G58*0.5)+(E58*G58)</f>
         <v>40.5</v>
       </c>
       <c r="J58" s="6">
-        <f t="shared" si="3"/>
+        <f>(C58*G58)+I58</f>
         <v>319.5</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10">
       <c r="A59" s="2">
         <v>4081</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C59" s="3">
         <v>31</v>
@@ -2678,27 +2647,27 @@
         <v>2</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="G59" s="4">
         <v>9</v>
       </c>
       <c r="H59" s="5"/>
       <c r="I59" s="6">
-        <f t="shared" si="2"/>
+        <f>(D59*G59*0.5)+(E59*G59)</f>
         <v>40.5</v>
       </c>
       <c r="J59" s="6">
-        <f t="shared" si="3"/>
+        <f>(C59*G59)+I59</f>
         <v>319.5</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10">
       <c r="A60" s="2">
         <v>4084</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C60" s="3">
         <v>31</v>
@@ -2710,27 +2679,27 @@
         <v>1</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="G60" s="4">
         <v>8.25</v>
       </c>
       <c r="H60" s="5"/>
       <c r="I60" s="6">
-        <f t="shared" si="2"/>
+        <f>(D60*G60*0.5)+(E60*G60)</f>
         <v>16.5</v>
       </c>
       <c r="J60" s="6">
-        <f t="shared" si="3"/>
+        <f>(C60*G60)+I60</f>
         <v>272.25</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10">
       <c r="A61" s="2">
         <v>4092</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C61" s="3">
         <v>31</v>
@@ -2742,27 +2711,27 @@
         <v>2</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="G61" s="4">
         <v>9</v>
       </c>
       <c r="H61" s="5"/>
       <c r="I61" s="6">
-        <f t="shared" si="2"/>
+        <f>(D61*G61*0.5)+(E61*G61)</f>
         <v>40.5</v>
       </c>
       <c r="J61" s="6">
-        <f t="shared" si="3"/>
+        <f>(C61*G61)+I61</f>
         <v>319.5</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10">
       <c r="A62" s="2">
         <v>4093</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="C62" s="3">
         <v>31</v>
@@ -2772,27 +2741,27 @@
         <v>2</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="G62" s="4">
         <v>8.25</v>
       </c>
       <c r="H62" s="5"/>
       <c r="I62" s="6">
-        <f t="shared" si="2"/>
+        <f>(D62*G62*0.5)+(E62*G62)</f>
         <v>16.5</v>
       </c>
       <c r="J62" s="6">
-        <f t="shared" si="3"/>
+        <f>(C62*G62)+I62</f>
         <v>272.25</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10">
       <c r="A63" s="2">
         <v>4101</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C63" s="3">
         <v>31</v>
@@ -2802,27 +2771,27 @@
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="2" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="G63" s="4">
         <v>9</v>
       </c>
       <c r="H63" s="5"/>
       <c r="I63" s="6">
-        <f t="shared" si="2"/>
+        <f>(D63*G63*0.5)+(E63*G63)</f>
         <v>18</v>
       </c>
       <c r="J63" s="6">
-        <f t="shared" si="3"/>
+        <f>(C63*G63)+I63</f>
         <v>297</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10">
       <c r="A64" s="2">
         <v>4102</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="C64" s="3">
         <v>31</v>
@@ -2834,27 +2803,27 @@
         <v>2</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="G64" s="4">
         <v>9</v>
       </c>
       <c r="H64" s="5"/>
       <c r="I64" s="6">
-        <f t="shared" si="2"/>
+        <f>(D64*G64*0.5)+(E64*G64)</f>
         <v>40.5</v>
       </c>
       <c r="J64" s="6">
-        <f t="shared" si="3"/>
+        <f>(C64*G64)+I64</f>
         <v>319.5</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10">
       <c r="A65" s="2">
         <v>4106</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C65" s="3">
         <v>31</v>
@@ -2866,27 +2835,27 @@
         <v>2</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="G65" s="4">
         <v>9</v>
       </c>
       <c r="H65" s="5"/>
       <c r="I65" s="6">
-        <f t="shared" si="2"/>
+        <f>(D65*G65*0.5)+(E65*G65)</f>
         <v>40.5</v>
       </c>
       <c r="J65" s="6">
-        <f t="shared" si="3"/>
+        <f>(C65*G65)+I65</f>
         <v>319.5</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10">
       <c r="A66" s="2">
         <v>4110</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C66" s="3">
         <v>25</v>
@@ -2896,27 +2865,27 @@
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="2" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="G66" s="4">
         <v>9</v>
       </c>
       <c r="H66" s="5"/>
       <c r="I66" s="6">
-        <f t="shared" si="2"/>
+        <f>(D66*G66*0.5)+(E66*G66)</f>
         <v>18</v>
       </c>
       <c r="J66" s="6">
-        <f t="shared" si="3"/>
+        <f>(C66*G66)+I66</f>
         <v>243</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10">
       <c r="A67" s="2">
         <v>4111</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C67" s="3">
         <v>31</v>
@@ -2926,27 +2895,27 @@
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G67" s="4">
         <v>9</v>
       </c>
       <c r="H67" s="5"/>
       <c r="I67" s="6">
-        <f t="shared" si="2"/>
+        <f>(D67*G67*0.5)+(E67*G67)</f>
         <v>18</v>
       </c>
       <c r="J67" s="6">
-        <f t="shared" si="3"/>
+        <f>(C67*G67)+I67</f>
         <v>297</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10">
       <c r="A68" s="2">
         <v>4113</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="C68" s="3">
         <v>31</v>
@@ -2958,27 +2927,27 @@
         <v>2</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="G68" s="4">
         <v>9</v>
       </c>
       <c r="H68" s="5"/>
       <c r="I68" s="6">
-        <f t="shared" si="2"/>
+        <f>(D68*G68*0.5)+(E68*G68)</f>
         <v>40.5</v>
       </c>
       <c r="J68" s="6">
-        <f t="shared" si="3"/>
+        <f>(C68*G68)+I68</f>
         <v>319.5</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10">
       <c r="A69" s="2">
         <v>4116</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C69" s="3">
         <v>31</v>
@@ -2990,27 +2959,27 @@
         <v>2</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="G69" s="4">
         <v>8.25</v>
       </c>
       <c r="H69" s="5"/>
       <c r="I69" s="6">
-        <f t="shared" si="2"/>
+        <f>(D69*G69*0.5)+(E69*G69)</f>
         <v>37.125</v>
       </c>
       <c r="J69" s="6">
-        <f t="shared" si="3"/>
+        <f>(C69*G69)+I69</f>
         <v>292.875</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10">
       <c r="A70" s="2">
         <v>4118</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C70" s="3">
         <v>31</v>
@@ -3018,27 +2987,27 @@
       <c r="D70" s="3"/>
       <c r="E70" s="6"/>
       <c r="F70" s="2" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="G70" s="4">
         <v>8.25</v>
       </c>
       <c r="H70" s="5"/>
       <c r="I70" s="6">
-        <f t="shared" si="2"/>
+        <f>(D70*G70*0.5)+(E70*G70)</f>
         <v>0</v>
       </c>
       <c r="J70" s="6">
-        <f t="shared" si="3"/>
+        <f>(C70*G70)+I70</f>
         <v>255.75</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10">
       <c r="A71" s="2">
         <v>4119</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C71" s="3">
         <v>31</v>
@@ -3050,27 +3019,27 @@
         <v>2</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="G71" s="4">
         <v>8.25</v>
       </c>
       <c r="H71" s="5"/>
       <c r="I71" s="6">
-        <f t="shared" si="2"/>
+        <f>(D71*G71*0.5)+(E71*G71)</f>
         <v>37.125</v>
       </c>
       <c r="J71" s="6">
-        <f t="shared" si="3"/>
+        <f>(C71*G71)+I71</f>
         <v>292.875</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10">
       <c r="A72" s="2">
         <v>4121</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C72" s="3">
         <v>31</v>
@@ -3082,27 +3051,27 @@
         <v>2</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="G72" s="4">
         <v>8.25</v>
       </c>
       <c r="H72" s="5"/>
       <c r="I72" s="6">
-        <f t="shared" si="2"/>
+        <f>(D72*G72*0.5)+(E72*G72)</f>
         <v>37.125</v>
       </c>
       <c r="J72" s="6">
-        <f t="shared" si="3"/>
+        <f>(C72*G72)+I72</f>
         <v>292.875</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10">
       <c r="A73" s="2">
         <v>4123</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C73" s="3">
         <v>31</v>
@@ -3114,27 +3083,27 @@
         <v>2</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="G73" s="4">
         <v>8.25</v>
       </c>
       <c r="H73" s="5"/>
       <c r="I73" s="6">
-        <f t="shared" si="2"/>
+        <f>(D73*G73*0.5)+(E73*G73)</f>
         <v>37.125</v>
       </c>
       <c r="J73" s="6">
-        <f t="shared" si="3"/>
+        <f>(C73*G73)+I73</f>
         <v>292.875</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10">
       <c r="A74" s="2">
         <v>4124</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C74" s="3">
         <v>31</v>
@@ -3144,27 +3113,27 @@
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G74" s="4">
         <v>8.25</v>
       </c>
       <c r="H74" s="5"/>
       <c r="I74" s="6">
-        <f t="shared" si="2"/>
+        <f>(D74*G74*0.5)+(E74*G74)</f>
         <v>16.5</v>
       </c>
       <c r="J74" s="6">
-        <f t="shared" si="3"/>
+        <f>(C74*G74)+I74</f>
         <v>272.25</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10">
       <c r="A75" s="2">
         <v>4128</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C75" s="3">
         <v>31</v>
@@ -3176,27 +3145,27 @@
         <v>2</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="G75" s="4">
         <v>8.25</v>
       </c>
       <c r="H75" s="5"/>
       <c r="I75" s="6">
-        <f t="shared" si="2"/>
+        <f>(D75*G75*0.5)+(E75*G75)</f>
         <v>37.125</v>
       </c>
       <c r="J75" s="6">
-        <f t="shared" si="3"/>
+        <f>(C75*G75)+I75</f>
         <v>292.875</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10">
       <c r="A76" s="2">
         <v>4129</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C76" s="3">
         <v>31</v>
@@ -3208,27 +3177,27 @@
         <v>2</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="G76" s="4">
         <v>8.25</v>
       </c>
       <c r="H76" s="5"/>
       <c r="I76" s="6">
-        <f t="shared" si="2"/>
+        <f>(D76*G76*0.5)+(E76*G76)</f>
         <v>37.125</v>
       </c>
       <c r="J76" s="6">
-        <f t="shared" si="3"/>
+        <f>(C76*G76)+I76</f>
         <v>292.875</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10">
       <c r="A77" s="2">
         <v>4131</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C77" s="3">
         <v>31</v>
@@ -3240,27 +3209,27 @@
         <v>2</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="G77" s="4">
         <v>8.25</v>
       </c>
       <c r="H77" s="5"/>
       <c r="I77" s="6">
-        <f t="shared" si="2"/>
+        <f>(D77*G77*0.5)+(E77*G77)</f>
         <v>37.125</v>
       </c>
       <c r="J77" s="6">
-        <f t="shared" si="3"/>
+        <f>(C77*G77)+I77</f>
         <v>292.875</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10">
       <c r="A78" s="2">
         <v>4134</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="C78" s="3">
         <v>31</v>
@@ -3272,27 +3241,27 @@
         <v>2</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="G78" s="4">
         <v>8.25</v>
       </c>
       <c r="H78" s="5"/>
       <c r="I78" s="6">
-        <f t="shared" si="2"/>
+        <f>(D78*G78*0.5)+(E78*G78)</f>
         <v>37.125</v>
       </c>
       <c r="J78" s="6">
-        <f t="shared" si="3"/>
+        <f>(C78*G78)+I78</f>
         <v>292.875</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10">
       <c r="A79" s="2">
         <v>4138</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="C79" s="3">
         <v>31</v>
@@ -3304,27 +3273,27 @@
         <v>2</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="G79" s="4">
         <v>8.25</v>
       </c>
       <c r="H79" s="5"/>
       <c r="I79" s="6">
-        <f t="shared" si="2"/>
+        <f>(D79*G79*0.5)+(E79*G79)</f>
         <v>37.125</v>
       </c>
       <c r="J79" s="6">
-        <f t="shared" si="3"/>
+        <f>(C79*G79)+I79</f>
         <v>292.875</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10">
       <c r="A80" s="2">
         <v>5057</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C80" s="3">
         <v>31</v>
@@ -3336,27 +3305,27 @@
         <v>2</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="G80" s="4">
         <v>9</v>
       </c>
       <c r="H80" s="5"/>
       <c r="I80" s="6">
-        <f t="shared" si="2"/>
+        <f>(D80*G80*0.5)+(E80*G80)</f>
         <v>40.5</v>
       </c>
       <c r="J80" s="6">
-        <f t="shared" si="3"/>
+        <f>(C80*G80)+I80</f>
         <v>319.5</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10">
       <c r="A81" s="2">
         <v>5071</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="C81" s="3">
         <v>10</v>
@@ -3364,29 +3333,29 @@
       <c r="D81" s="3"/>
       <c r="E81" s="6"/>
       <c r="F81" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G81" s="4">
         <v>9</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="I81" s="6">
-        <f t="shared" si="2"/>
+        <f>(D81*G81*0.5)+(E81*G81)</f>
         <v>0</v>
       </c>
       <c r="J81" s="6">
-        <f t="shared" si="3"/>
+        <f>(C81*G81)+I81</f>
         <v>90</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10">
       <c r="A82" s="2">
         <v>7051</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="C82" s="3">
         <v>31</v>
@@ -3398,27 +3367,27 @@
         <v>2</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="G82" s="4">
         <v>9</v>
       </c>
       <c r="H82" s="5"/>
       <c r="I82" s="6">
-        <f t="shared" si="2"/>
+        <f>(D82*G82*0.5)+(E82*G82)</f>
         <v>40.5</v>
       </c>
       <c r="J82" s="6">
-        <f t="shared" si="3"/>
+        <f>(C82*G82)+I82</f>
         <v>319.5</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10">
       <c r="A83" s="2">
         <v>9097</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="C83" s="3">
         <v>31</v>
@@ -3430,27 +3399,27 @@
         <v>2</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="G83" s="4">
         <v>9</v>
       </c>
       <c r="H83" s="5"/>
       <c r="I83" s="6">
-        <f t="shared" si="2"/>
+        <f>(D83*G83*0.5)+(E83*G83)</f>
         <v>40.5</v>
       </c>
       <c r="J83" s="6">
-        <f t="shared" si="3"/>
+        <f>(C83*G83)+I83</f>
         <v>319.5</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10">
       <c r="A84" s="2">
         <v>30023</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C84" s="3">
         <v>31</v>
@@ -3462,27 +3431,27 @@
         <v>2</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="G84" s="4">
         <v>9</v>
       </c>
       <c r="H84" s="5"/>
       <c r="I84" s="6">
-        <f t="shared" si="2"/>
+        <f>(D84*G84*0.5)+(E84*G84)</f>
         <v>40.5</v>
       </c>
       <c r="J84" s="6">
-        <f t="shared" si="3"/>
+        <f>(C84*G84)+I84</f>
         <v>319.5</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10">
       <c r="A85" s="2">
         <v>50507</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="C85" s="3">
         <v>31</v>
@@ -3494,52 +3463,55 @@
         <v>2</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="G85" s="4">
         <v>8.25</v>
       </c>
       <c r="H85" s="5"/>
       <c r="I85" s="6">
-        <f t="shared" si="2"/>
+        <f>(D85*G85*0.5)+(E85*G85)</f>
         <v>37.125</v>
       </c>
       <c r="J85" s="6">
-        <f t="shared" si="3"/>
+        <f>(C85*G85)+I85</f>
         <v>292.875</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10">
       <c r="A86" s="2">
         <v>50553</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="6"/>
       <c r="F86" s="2" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="G86" s="4">
         <v>9</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="I86" s="6">
-        <f t="shared" si="2"/>
+        <f>(D86*G86*0.5)+(E86*G86)</f>
         <v>0</v>
       </c>
       <c r="J86" s="6">
-        <f t="shared" si="3"/>
+        <f>(C86*G86)+I86</f>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="15" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <sortState ref="A2:J86">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A1:J1" numberStoredAsText="1"/>
   </ignoredErrors>
